--- a/GameConfig/Datas/__tables__.xlsx
+++ b/GameConfig/Datas/__tables__.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12900"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -97,19 +110,58 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>item.TbItem</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>item.xlsx</t>
+    <t>TbItemConfig</t>
+  </si>
+  <si>
+    <t>ItemConfig</t>
+  </si>
+  <si>
+    <t>道具配置表.xlsx</t>
+  </si>
+  <si>
+    <t>道具配置表</t>
+  </si>
+  <si>
+    <t>TbSoundConfig</t>
+  </si>
+  <si>
+    <t>SoundConfig</t>
+  </si>
+  <si>
+    <t>音效配置表.xlsx</t>
+  </si>
+  <si>
+    <t>音效配置表</t>
+  </si>
+  <si>
+    <t>TbModelConfig</t>
+  </si>
+  <si>
+    <t>ModelConfig</t>
+  </si>
+  <si>
+    <t>模型配置表.xlsx</t>
+  </si>
+  <si>
+    <t>模型配置表</t>
+  </si>
+  <si>
+    <t>TbEffectConfig</t>
+  </si>
+  <si>
+    <t>EffectConfig</t>
+  </si>
+  <si>
+    <t>特效配置表.xlsx</t>
+  </si>
+  <si>
+    <t>特效配置表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -120,14 +172,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -135,7 +187,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -143,14 +195,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -158,7 +210,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +218,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +226,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -182,7 +234,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -190,14 +242,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -205,7 +257,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +265,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -221,14 +273,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -236,35 +288,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -719,64 +771,67 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1045,19 +1100,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="20.3809523809524" customWidth="1"/>
-    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="32.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="24.3809523809524" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="20.3833333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.575" style="2" customWidth="1"/>
+    <col min="4" max="4" width="53.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.3833333333333" style="2" customWidth="1"/>
+    <col min="6" max="9" width="18" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.75" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1150,21 +1208,80 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D4:D6 D8:D1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/GameConfig/Datas/__tables__.xlsx
+++ b/GameConfig/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>特效配置表</t>
+  </si>
+  <si>
+    <t>TbGmConfig</t>
+  </si>
+  <si>
+    <t>GmConfig</t>
+  </si>
+  <si>
+    <t>GM配置表.xlsx</t>
+  </si>
+  <si>
+    <t>GM配置表</t>
   </si>
 </sst>
 </file>
@@ -1100,13 +1112,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="20.3833333333333" style="2" customWidth="1"/>
@@ -1276,9 +1288,26 @@
         <v>42</v>
       </c>
     </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D4:D6 D8:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 D4:D7 D9:D1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/GameConfig/Datas/__tables__.xlsx
+++ b/GameConfig/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\GitHub Project\DGame\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E3F21-55B3-44EB-B5A1-43C1EEA82B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C69C6-3F12-4742-86C6-4E823BD15B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5650" windowWidth="33800" windowHeight="15230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>mode</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
@@ -189,6 +186,10 @@
   </si>
   <si>
     <t>文本配置表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -561,7 +562,10 @@
     <col min="3" max="3" width="15.58203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="53.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.4140625" style="2" customWidth="1"/>
-    <col min="6" max="9" width="18" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.9140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="55.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.9140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18" style="2" customWidth="1"/>
     <col min="10" max="10" width="28.75" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
@@ -586,177 +590,184 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
